--- a/biology/Zoologie/Argas/Argas.xlsx
+++ b/biology/Zoologie/Argas/Argas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argas est un genre de tiques de la famille des Argasidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont surtout trouvées dans les zones chaudes voire arides.
-Elles pourraient donc voir leur aire de répartition grandir avec le réchauffement climatique. Par exemple Argas reflexus est maintenant observée en Europe centrale, sans doute introduite ou apportée par des oiseaux (souvent associée aux pigeons[1]). Or de manière inattendue, cette tique molle résiste mieux et plus longtemps au gel que des tiques européennes telles que Ixodes ricinus[2].
+Elles pourraient donc voir leur aire de répartition grandir avec le réchauffement climatique. Par exemple Argas reflexus est maintenant observée en Europe centrale, sans doute introduite ou apportée par des oiseaux (souvent associée aux pigeons). Or de manière inattendue, cette tique molle résiste mieux et plus longtemps au gel que des tiques européennes telles que Ixodes ricinus.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces tiques sont porteuses et vectrices de virus et bactéries pathogènes pour de nombreux animaux et parfois pour l'Homme.
 Elles transportent et inoculent parfois des virus, des bactéries, des protozoaires ou des nématodes qui ont souvent coévolué avec elles.
@@ -575,10 +591,12 @@
           <t>Allergénicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des réactions allergiques sont souvent constatées. Ce sont probablement des réactions du système immunitaire face aux anticoagulants et aux enzymes salivaire injectés par la tique. Elles vont de l'envenimation du point de morsure à une crise allergique, parfois violente et brutale allant jusqu'au choc anaphylactique, souvent récidivant[3] (Ex : pour 12 cas faisant suite à des morsures d' Argas reflexus rapportés par J.C. Bessot et al.[3] ont été accompagnés de manifestations cutanées ou muqueuses (12 cas/12), de troubles respiratoires (8 cas), digestifs (6 cas), et cardio-circulatoires (12 cas), ayant abouti dans 8 cas à une perte de connaissance et envoi en service de réanimation.
-La piqure se fait souvent de nuit[3], en saison chaude[3] et la présence de pigeons dans l'environnement immédiat peut orienter le diagnostic[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des réactions allergiques sont souvent constatées. Ce sont probablement des réactions du système immunitaire face aux anticoagulants et aux enzymes salivaire injectés par la tique. Elles vont de l'envenimation du point de morsure à une crise allergique, parfois violente et brutale allant jusqu'au choc anaphylactique, souvent récidivant (Ex : pour 12 cas faisant suite à des morsures d' Argas reflexus rapportés par J.C. Bessot et al. ont été accompagnés de manifestations cutanées ou muqueuses (12 cas/12), de troubles respiratoires (8 cas), digestifs (6 cas), et cardio-circulatoires (12 cas), ayant abouti dans 8 cas à une perte de connaissance et envoi en service de réanimation.
+La piqure se fait souvent de nuit, en saison chaude et la présence de pigeons dans l'environnement immédiat peut orienter le diagnostic.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Spécificité comportementale rare</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les tiques étaient considérées comme n'ayant aucun comportement maternel, mais une première exception (transport de larves sur l'opisthosoma) a été observée chez Antricola marginatus[4] puis chez deux autres espèces d'argasidae : Argas (Argas) striatus et Argas (Secretargas) transgariepinus ; avec en outre un comportement inattendu de couvaison des œufs chez cette dernière espèces (A. (S.) transgariepinus) qui possède aussi une structure unique sur la partie ventrale de son abdomen (chez la femelle uniquement)[4]. Ce comportement pourrait être une adaptation évolutive (peut être lié à la présence de pulvilli sur les larves) ou être la conservation d'un trait ancestral disparu chez les autres genre et espèces de tiques[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les tiques étaient considérées comme n'ayant aucun comportement maternel, mais une première exception (transport de larves sur l'opisthosoma) a été observée chez Antricola marginatus puis chez deux autres espèces d'argasidae : Argas (Argas) striatus et Argas (Secretargas) transgariepinus ; avec en outre un comportement inattendu de couvaison des œufs chez cette dernière espèces (A. (S.) transgariepinus) qui possède aussi une structure unique sur la partie ventrale de son abdomen (chez la femelle uniquement). Ce comportement pourrait être une adaptation évolutive (peut être lié à la présence de pulvilli sur les larves) ou être la conservation d'un trait ancestral disparu chez les autres genre et espèces de tiques.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Guglielmone et al., 2010[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Guglielmone et al., 2010 :
 Argas abdussalami Hoogstraal &amp; McCarthy, 1965
 Argas africolumbae Hoogstraal, Kaiser, Walker, Ledger, Converse &amp; Rice, 1975
 Argas arboreus Kaiser, Hoogstraal &amp; Kohls, 1964
@@ -729,7 +751,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Latreille, 1795 : Observations sur la variété des organes de la bouche des tiques, et distribution méthodique des insectes de cette famille d'après les caractères établis sur la conformation de ces organes. Magasin Encyclopédique, ou Journal des Sciences, des Lettres et des Arts, Paris, vol. 4, p. 15-20.</t>
         </is>
